--- a/Libary/MTE_111_F.xlsx
+++ b/Libary/MTE_111_F.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!XJ\F-Meter_develop\Libary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!XJ\Mea-Auto_develop\Libary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
   <si>
     <t>перетворювача</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>МТЕ III</t>
-  </si>
-  <si>
-    <t>3А2H3</t>
   </si>
   <si>
     <t>Встановлене значення 
@@ -165,9 +162,6 @@
     <t>075176</t>
   </si>
   <si>
-    <t>X/19-8A</t>
-  </si>
-  <si>
     <t>Нормуюче знач. вих. сигналу, mA</t>
   </si>
   <si>
@@ -181,9 +175,6 @@
   </si>
   <si>
     <t>Дата:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> придатний  </t>
   </si>
   <si>
     <t>Основна приведена похибка приладу при вимірюванні частоти, %</t>
@@ -1000,12 +991,13 @@
   <dimension ref="A1:W135"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="200" zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="22" width="4.140625" style="2" customWidth="1"/>
+    <col min="1" max="21" width="4.140625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="5.140625" style="2" customWidth="1"/>
     <col min="23" max="23" width="4" style="2" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -1025,7 +1017,7 @@
       <c r="J1" s="69"/>
       <c r="K1" s="69"/>
       <c r="L1" s="70" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="M1" s="70"/>
       <c r="N1" s="70"/>
@@ -1087,7 +1079,7 @@
       </c>
       <c r="M3" s="71"/>
       <c r="N3" s="72" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O3" s="72"/>
       <c r="P3" s="32" t="s">
@@ -1095,7 +1087,7 @@
       </c>
       <c r="Q3" s="32"/>
       <c r="R3" s="72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S3" s="72"/>
       <c r="T3" s="72"/>
@@ -1139,15 +1131,15 @@
         <v>0.25</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
@@ -1274,13 +1266,13 @@
       <c r="H10" s="59"/>
       <c r="I10" s="60"/>
       <c r="N10" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O10" s="52"/>
       <c r="P10" s="52"/>
       <c r="Q10" s="53"/>
       <c r="R10" s="54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S10" s="54"/>
       <c r="T10" s="54"/>
@@ -1298,19 +1290,19 @@
       </c>
       <c r="E11" s="61"/>
       <c r="F11" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="59"/>
       <c r="H11" s="59"/>
       <c r="I11" s="60"/>
       <c r="N11" s="51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O11" s="52"/>
       <c r="P11" s="52"/>
       <c r="Q11" s="53"/>
       <c r="R11" s="54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S11" s="54"/>
       <c r="T11" s="54"/>
@@ -1334,13 +1326,13 @@
       <c r="H12" s="59"/>
       <c r="I12" s="60"/>
       <c r="N12" s="51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O12" s="52"/>
       <c r="P12" s="52"/>
       <c r="Q12" s="53"/>
       <c r="R12" s="54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S12" s="54"/>
       <c r="T12" s="54"/>
@@ -1465,7 +1457,7 @@
     </row>
     <row r="18" spans="1:22" s="8" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
@@ -1498,28 +1490,28 @@
     </row>
     <row r="20" spans="1:22" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="27" t="s">
         <v>55</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>58</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I20" s="31"/>
       <c r="J20" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K20" s="29"/>
       <c r="L20" s="29"/>
@@ -1528,7 +1520,7 @@
         <v>20</v>
       </c>
       <c r="N20" s="24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O20" s="25"/>
       <c r="P20" s="25"/>
@@ -1541,25 +1533,25 @@
     </row>
     <row r="21" spans="1:22" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
       <c r="E21" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="35"/>
       <c r="G21" s="35"/>
       <c r="H21" s="35"/>
       <c r="I21" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
       <c r="M21" s="35" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N21" s="35"/>
       <c r="O21" s="35"/>
@@ -1567,7 +1559,7 @@
       <c r="Q21" s="35"/>
       <c r="R21" s="35"/>
       <c r="S21" s="35" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="T21" s="35"/>
       <c r="U21" s="35"/>
@@ -1581,7 +1573,7 @@
       <c r="C22" s="64"/>
       <c r="D22" s="64"/>
       <c r="E22" s="65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" s="65"/>
       <c r="G22" s="65"/>
@@ -1617,7 +1609,7 @@
       <c r="C23" s="64"/>
       <c r="D23" s="64"/>
       <c r="E23" s="65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F23" s="65"/>
       <c r="G23" s="65"/>
@@ -1651,7 +1643,7 @@
       <c r="C24" s="64"/>
       <c r="D24" s="64"/>
       <c r="E24" s="65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F24" s="65"/>
       <c r="G24" s="65"/>
@@ -1685,7 +1677,7 @@
       <c r="C25" s="64"/>
       <c r="D25" s="64"/>
       <c r="E25" s="65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25" s="65"/>
       <c r="G25" s="65"/>
@@ -1719,7 +1711,7 @@
       <c r="C26" s="64"/>
       <c r="D26" s="64"/>
       <c r="E26" s="65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26" s="65"/>
       <c r="G26" s="65"/>
@@ -1783,19 +1775,19 @@
     <row r="62" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B63" s="32"/>
       <c r="C63" s="32"/>
       <c r="D63" s="32" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E63" s="32"/>
       <c r="F63" s="33"/>
       <c r="G63" s="16"/>
       <c r="H63" s="16"/>
       <c r="I63" s="34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J63" s="32"/>
       <c r="K63" s="32"/>
@@ -1805,12 +1797,12 @@
       <c r="O63" s="16"/>
       <c r="P63" s="16"/>
       <c r="Q63" s="34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R63" s="32"/>
       <c r="S63" s="32"/>
       <c r="T63" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U63" s="32"/>
       <c r="V63" s="33"/>

--- a/Libary/MTE_111_F.xlsx
+++ b/Libary/MTE_111_F.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!XJ\Mea-Auto_develop\Libary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!XJ\AMSof_Develop\Libary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Вих2" sheetId="1" r:id="rId1"/>
-    <sheet name="Вих3" sheetId="4" r:id="rId2"/>
+    <sheet name="Протокол" sheetId="1" r:id="rId1"/>
+    <sheet name="Графік сигналу" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>перетворювача</t>
   </si>
@@ -199,17 +199,21 @@
   <si>
     <t>Ном.\Норм. 
 частота, Гц</t>
+  </si>
+  <si>
+    <t>Класс</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="mm:ss.000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,16 +302,39 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -447,11 +474,137 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -522,6 +675,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -708,8 +889,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Вывод" xfId="1" builtinId="21"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -723,6 +908,923 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Графік сигналу'!$D$1:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1.004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.00833333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.00983333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0113333333333301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0128333333333299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.01433333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.01583333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0173333333333301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0188333333333299</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.02033333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0005000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0005000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9995000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0005000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0005000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0005000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0005000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0005000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0005000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.0005000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.0005000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0005000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0005000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.0005000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB9A-41C8-B86E-05FD4891DAC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1587644575"/>
+        <c:axId val="1587648319"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1587644575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1587648319"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1587648319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1587644575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -990,8 +2092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W135"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="200" zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView topLeftCell="A4" zoomScale="175" zoomScaleNormal="100" zoomScalePageLayoutView="175" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,32 +2105,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="70" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1057,42 +2159,42 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="71" t="s">
+      <c r="K3" s="42"/>
+      <c r="L3" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="71"/>
-      <c r="N3" s="72" t="s">
+      <c r="M3" s="81"/>
+      <c r="N3" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="72"/>
-      <c r="P3" s="32" t="s">
+      <c r="O3" s="82"/>
+      <c r="P3" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="72" t="s">
+      <c r="Q3" s="42"/>
+      <c r="R3" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="73"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="83"/>
       <c r="W3" s="4"/>
     </row>
     <row r="4" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1122,39 +2224,39 @@
     </row>
     <row r="5" spans="1:23" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="18">
         <v>0.25</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
       <c r="I5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
       <c r="M5" s="18">
         <v>50</v>
       </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
       <c r="Q5" s="18"/>
-      <c r="R5" s="74" t="s">
+      <c r="R5" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="75"/>
-      <c r="T5" s="75"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="85"/>
       <c r="U5" s="19">
         <v>2</v>
       </c>
@@ -1170,53 +2272,53 @@
     </row>
     <row r="7" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="78"/>
-      <c r="N7" s="76" t="s">
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="88"/>
+      <c r="N7" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="77"/>
-      <c r="S7" s="77"/>
-      <c r="T7" s="77"/>
-      <c r="U7" s="78"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="87"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="87"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="6"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="47" t="s">
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="46"/>
-      <c r="N8" s="47" t="s">
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="56"/>
+      <c r="N8" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="45" t="s">
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="46"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="56"/>
     </row>
     <row r="9" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1225,28 +2327,28 @@
       <c r="C9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="58" t="s">
+      <c r="E9" s="71"/>
+      <c r="F9" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="60"/>
-      <c r="N9" s="48" t="s">
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="70"/>
+      <c r="N9" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="54">
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="64">
         <v>556621</v>
       </c>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="55"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="65"/>
     </row>
     <row r="10" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
@@ -1255,28 +2357,28 @@
       <c r="C10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="85"/>
-      <c r="F10" s="58" t="s">
+      <c r="E10" s="95"/>
+      <c r="F10" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="60"/>
-      <c r="N10" s="51" t="s">
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="70"/>
+      <c r="N10" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="54" t="s">
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="55"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="65"/>
     </row>
     <row r="11" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
@@ -1285,28 +2387,28 @@
       <c r="C11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="61"/>
-      <c r="F11" s="58" t="s">
+      <c r="E11" s="71"/>
+      <c r="F11" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="60"/>
-      <c r="N11" s="51" t="s">
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="70"/>
+      <c r="N11" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="54" t="s">
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="55"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="65"/>
     </row>
     <row r="12" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
@@ -1315,28 +2417,28 @@
       <c r="C12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="D12" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="58" t="s">
+      <c r="E12" s="71"/>
+      <c r="F12" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="60"/>
-      <c r="N12" s="51" t="s">
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="70"/>
+      <c r="N12" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="54" t="s">
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="S12" s="54"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="55"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="65"/>
     </row>
     <row r="13" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="20" t="s">
@@ -1345,24 +2447,24 @@
       <c r="C13" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42" t="s">
+      <c r="E13" s="51"/>
+      <c r="F13" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="44"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="57"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="67"/>
     </row>
     <row r="14" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="6"/>
@@ -1372,116 +2474,116 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:23" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="79" t="s">
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="T15" s="80"/>
-      <c r="U15" s="80"/>
-      <c r="V15" s="81"/>
+      <c r="T15" s="90"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="91"/>
     </row>
     <row r="16" spans="1:23" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="47" t="s">
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="46"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="56"/>
     </row>
     <row r="17" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="47" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="46"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="56"/>
     </row>
     <row r="18" spans="1:22" s="8" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="47" t="s">
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="46"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="56"/>
     </row>
     <row r="19" spans="1:22" s="8" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
@@ -1495,247 +2597,247 @@
       <c r="B20" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="28"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="30" t="s">
+      <c r="G20" s="39"/>
+      <c r="H20" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="31"/>
-      <c r="J20" s="27" t="s">
+      <c r="I20" s="41"/>
+      <c r="J20" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
       <c r="M20" s="22" t="str">
         <f>IF(H20="(-5)..0..5","5",IF(H20="0..5","5",IF(H20="0..2,5..5","5","20")))</f>
         <v>20</v>
       </c>
-      <c r="N20" s="24" t="s">
+      <c r="N20" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="26"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="36"/>
     </row>
     <row r="21" spans="1:22" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35" t="s">
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35" t="s">
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35" t="s">
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35" t="s">
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45"/>
     </row>
     <row r="22" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="64">
+      <c r="A22" s="74">
         <v>45</v>
       </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="65" t="s">
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="37" t="e">
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="47" t="e">
         <f>E22*10/$M$20+45</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37" t="e">
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47" t="e">
         <f>(I22-A22)/$M$5*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="36">
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="46">
         <v>0.05</v>
       </c>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
     </row>
     <row r="23" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="64">
+      <c r="A23" s="74">
         <v>47.5</v>
       </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="65" t="s">
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="37" t="e">
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="47" t="e">
         <f t="shared" ref="I23:I26" si="0">E23*10/$M$20+45</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37" t="e">
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47" t="e">
         <f t="shared" ref="M23:M26" si="1">(I23-A23)/$M$5*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
     </row>
     <row r="24" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="64">
+      <c r="A24" s="74">
         <v>50</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="65" t="s">
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="37" t="e">
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="47" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37" t="e">
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="46"/>
     </row>
     <row r="25" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="64">
+      <c r="A25" s="74">
         <v>52.5</v>
       </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="65" t="s">
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="37" t="e">
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="47" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37" t="e">
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="46"/>
     </row>
     <row r="26" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="64">
+      <c r="A26" s="74">
         <v>55</v>
       </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="65" t="s">
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="37" t="e">
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="47" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37" t="e">
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
     </row>
     <row r="27" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1774,38 +2876,38 @@
     <row r="61" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="34" t="s">
+      <c r="A63" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B63" s="32"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32" t="s">
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="E63" s="32"/>
-      <c r="F63" s="33"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="43"/>
       <c r="G63" s="16"/>
       <c r="H63" s="16"/>
-      <c r="I63" s="34" t="s">
+      <c r="I63" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="J63" s="32"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="32"/>
-      <c r="M63" s="32"/>
-      <c r="N63" s="33"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="42"/>
+      <c r="M63" s="42"/>
+      <c r="N63" s="43"/>
       <c r="O63" s="16"/>
       <c r="P63" s="16"/>
-      <c r="Q63" s="34" t="s">
+      <c r="Q63" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="R63" s="32"/>
-      <c r="S63" s="32"/>
-      <c r="T63" s="32" t="s">
+      <c r="R63" s="42"/>
+      <c r="S63" s="42"/>
+      <c r="T63" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="U63" s="32"/>
-      <c r="V63" s="33"/>
+      <c r="U63" s="42"/>
+      <c r="V63" s="43"/>
     </row>
     <row r="65" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1975,14 +3077,1467 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E199"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="33"/>
+    <col min="3" max="3" width="9.140625" style="29"/>
+    <col min="4" max="4" width="9.140625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="96">
+        <v>2.8935185185185184E-6</v>
+      </c>
+      <c r="C1" s="30">
+        <v>1</v>
+      </c>
+      <c r="D1" s="31">
+        <f>IF(E1 =  0, , E1)</f>
+        <v>1.004</v>
+      </c>
+      <c r="E1" s="31">
+        <v>1.004</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="25" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="B2" s="96">
+        <v>5.7870370370370367E-6</v>
+      </c>
+      <c r="C2" s="29">
+        <v>1</v>
+      </c>
+      <c r="D2" s="31">
+        <f t="shared" ref="D2:D65" si="0">IF(E2 =  0, , E2)</f>
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="E2" s="32">
+        <v>1.0049999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24"/>
+      <c r="B3" s="96">
+        <v>8.6805555555555606E-6</v>
+      </c>
+      <c r="C3" s="29">
+        <v>1</v>
+      </c>
+      <c r="D3" s="31">
+        <f t="shared" si="0"/>
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="E3" s="32">
+        <v>1.0069999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="96">
+        <v>1.1574074074074101E-5</v>
+      </c>
+      <c r="C4" s="29">
+        <v>1</v>
+      </c>
+      <c r="D4" s="31">
+        <f t="shared" si="0"/>
+        <v>1.00833333333333</v>
+      </c>
+      <c r="E4" s="32">
+        <v>1.00833333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="96">
+        <v>1.44675925925926E-5</v>
+      </c>
+      <c r="C5" s="29">
+        <v>1</v>
+      </c>
+      <c r="D5" s="31">
+        <f t="shared" si="0"/>
+        <v>1.00983333333333</v>
+      </c>
+      <c r="E5" s="32">
+        <v>1.00983333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="96">
+        <v>1.7361111111111101E-5</v>
+      </c>
+      <c r="C6" s="29">
+        <v>1</v>
+      </c>
+      <c r="D6" s="31">
+        <f t="shared" si="0"/>
+        <v>1.0113333333333301</v>
+      </c>
+      <c r="E6" s="32">
+        <v>1.0113333333333301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="96">
+        <v>2.0254629629629599E-5</v>
+      </c>
+      <c r="C7" s="29">
+        <v>1</v>
+      </c>
+      <c r="D7" s="31">
+        <f t="shared" si="0"/>
+        <v>1.0128333333333299</v>
+      </c>
+      <c r="E7" s="32">
+        <v>1.0128333333333299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="96">
+        <v>2.31481481481481E-5</v>
+      </c>
+      <c r="C8" s="29">
+        <v>1</v>
+      </c>
+      <c r="D8" s="31">
+        <f t="shared" si="0"/>
+        <v>1.01433333333333</v>
+      </c>
+      <c r="E8" s="32">
+        <v>1.01433333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="96">
+        <v>2.6041666666666601E-5</v>
+      </c>
+      <c r="C9" s="29">
+        <v>1</v>
+      </c>
+      <c r="D9" s="31">
+        <f t="shared" si="0"/>
+        <v>1.01583333333333</v>
+      </c>
+      <c r="E9" s="32">
+        <v>1.01583333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="96">
+        <v>2.89351851851852E-5</v>
+      </c>
+      <c r="C10" s="29">
+        <v>1</v>
+      </c>
+      <c r="D10" s="31">
+        <f t="shared" si="0"/>
+        <v>1.0173333333333301</v>
+      </c>
+      <c r="E10" s="32">
+        <v>1.0173333333333301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="96">
+        <v>3.1828703703703701E-5</v>
+      </c>
+      <c r="C11" s="29">
+        <v>1</v>
+      </c>
+      <c r="D11" s="31">
+        <f t="shared" si="0"/>
+        <v>1.0188333333333299</v>
+      </c>
+      <c r="E11" s="32">
+        <v>1.0188333333333299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="96">
+        <v>3.4722222222222202E-5</v>
+      </c>
+      <c r="C12" s="29">
+        <v>1</v>
+      </c>
+      <c r="D12" s="31">
+        <f t="shared" si="0"/>
+        <v>1.02033333333333</v>
+      </c>
+      <c r="E12" s="32">
+        <v>1.02033333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="96">
+        <v>3.7615740740740703E-5</v>
+      </c>
+      <c r="C13" s="29">
+        <v>2</v>
+      </c>
+      <c r="D13" s="31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E13" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="96">
+        <v>4.0509259259259197E-5</v>
+      </c>
+      <c r="C14" s="29">
+        <v>2</v>
+      </c>
+      <c r="D14" s="31">
+        <f t="shared" si="0"/>
+        <v>2.0005000000000002</v>
+      </c>
+      <c r="E14" s="32">
+        <v>2.0005000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="96">
+        <v>4.34027777777778E-5</v>
+      </c>
+      <c r="C15" s="29">
+        <v>2</v>
+      </c>
+      <c r="D15" s="31">
+        <f t="shared" si="0"/>
+        <v>2.0005000000000002</v>
+      </c>
+      <c r="E15" s="32">
+        <v>2.0005000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="96">
+        <v>4.6296296296296301E-5</v>
+      </c>
+      <c r="C16" s="29">
+        <v>2</v>
+      </c>
+      <c r="D16" s="31">
+        <f t="shared" si="0"/>
+        <v>1.9995000000000001</v>
+      </c>
+      <c r="E16" s="32">
+        <v>1.9995000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="96">
+        <v>4.9189814814814802E-5</v>
+      </c>
+      <c r="C17" s="29">
+        <v>2</v>
+      </c>
+      <c r="D17" s="31">
+        <f t="shared" si="0"/>
+        <v>2.0005000000000002</v>
+      </c>
+      <c r="E17" s="32">
+        <v>2.0005000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="96">
+        <v>5.2083333333333303E-5</v>
+      </c>
+      <c r="C18" s="29">
+        <v>2</v>
+      </c>
+      <c r="D18" s="31">
+        <f t="shared" si="0"/>
+        <v>2.0005000000000002</v>
+      </c>
+      <c r="E18" s="32">
+        <v>2.0005000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="96">
+        <v>5.4976851851851797E-5</v>
+      </c>
+      <c r="C19" s="29">
+        <v>2</v>
+      </c>
+      <c r="D19" s="31">
+        <f t="shared" si="0"/>
+        <v>2.0005000000000002</v>
+      </c>
+      <c r="E19" s="32">
+        <v>2.0005000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="96">
+        <v>5.78703703703704E-5</v>
+      </c>
+      <c r="C20" s="29">
+        <v>2</v>
+      </c>
+      <c r="D20" s="31">
+        <f t="shared" si="0"/>
+        <v>2.0005000000000002</v>
+      </c>
+      <c r="E20" s="32">
+        <v>2.0005000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="96">
+        <v>6.0763888888888901E-5</v>
+      </c>
+      <c r="C21" s="29">
+        <v>2</v>
+      </c>
+      <c r="D21" s="31">
+        <f t="shared" si="0"/>
+        <v>2.0005000000000002</v>
+      </c>
+      <c r="E21" s="32">
+        <v>2.0005000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="96">
+        <v>6.3657407407407402E-5</v>
+      </c>
+      <c r="C22" s="29">
+        <v>2</v>
+      </c>
+      <c r="D22" s="31">
+        <f t="shared" si="0"/>
+        <v>2.0005000000000002</v>
+      </c>
+      <c r="E22" s="32">
+        <v>2.0005000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="96">
+        <v>6.6550925925925903E-5</v>
+      </c>
+      <c r="C23" s="29">
+        <v>2</v>
+      </c>
+      <c r="D23" s="31">
+        <f t="shared" si="0"/>
+        <v>2.0005000000000002</v>
+      </c>
+      <c r="E23" s="32">
+        <v>2.0005000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="96">
+        <v>6.9444444444444404E-5</v>
+      </c>
+      <c r="C24" s="29">
+        <v>2</v>
+      </c>
+      <c r="D24" s="31">
+        <f t="shared" si="0"/>
+        <v>2.0005000000000002</v>
+      </c>
+      <c r="E24" s="32">
+        <v>2.0005000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="96">
+        <v>7.2337962962962905E-5</v>
+      </c>
+      <c r="C25" s="29">
+        <v>2</v>
+      </c>
+      <c r="D25" s="31">
+        <f t="shared" si="0"/>
+        <v>2.0005000000000002</v>
+      </c>
+      <c r="E25" s="32">
+        <v>2.0005000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="96">
+        <v>7.5231481481481501E-5</v>
+      </c>
+      <c r="C26" s="29">
+        <v>2</v>
+      </c>
+      <c r="D26" s="31">
+        <f t="shared" si="0"/>
+        <v>2.0005000000000002</v>
+      </c>
+      <c r="E26" s="32">
+        <v>2.0005000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="96">
+        <v>7.8125000000000002E-5</v>
+      </c>
+      <c r="C27" s="29">
+        <v>2</v>
+      </c>
+      <c r="D27" s="31">
+        <f t="shared" si="0"/>
+        <v>2.0005000000000002</v>
+      </c>
+      <c r="E27" s="32">
+        <v>2.0005000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D45" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D48" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D49" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D50" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D51" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D52" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D53" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D54" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D55" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D56" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D57" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D58" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D60" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D61" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D62" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D63" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D64" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D65" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D66" s="31">
+        <f t="shared" ref="D66:D129" si="1">IF(E66 =  0, , E66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D67" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D68" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D69" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D70" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D71" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D72" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D73" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D74" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D75" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D76" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D77" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D78" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D79" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D80" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D81" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D82" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D83" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D84" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D85" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D86" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D87" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D88" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D89" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D90" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D91" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D92" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D93" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D94" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D95" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D96" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D97" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D98" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D99" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D100" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D101" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D102" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D103" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D104" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D105" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D106" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D107" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D108" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D109" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D110" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D111" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D112" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D113" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D114" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D115" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D116" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D117" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D118" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D119" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D120" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D121" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D122" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D123" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D124" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D125" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D126" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D127" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D128" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D129" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D130" s="31">
+        <f t="shared" ref="D130:D193" si="2">IF(E130 =  0, , E130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D131" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D132" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D133" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D134" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D135" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D136" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D137" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D138" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D139" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D140" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D141" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D142" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D143" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D144" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D145" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D146" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D147" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D148" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D149" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D150" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D151" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D152" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D153" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D154" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D155" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D156" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D157" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D158" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D159" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D160" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D161" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D162" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D163" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D164" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D165" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D166" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D167" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D168" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D169" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D170" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D171" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D172" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D173" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D174" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D175" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D176" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D177" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D178" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D179" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D180" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D181" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D182" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D183" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D184" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D185" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D186" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D187" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D188" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D189" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D190" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D191" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D192" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D193" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D194" s="31">
+        <f t="shared" ref="D194:D199" si="3">IF(E194 =  0, , E194)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D195" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D196" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D197" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D198" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D199" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>